--- a/biology/Botanique/Maladie_de_la_fleur/Maladie_de_la_fleur.xlsx
+++ b/biology/Botanique/Maladie_de_la_fleur/Maladie_de_la_fleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de la fleur est la formation d'un voile qui apparaît sur le vin au contact de l’air. C'est une altération levurienne, qui donne des odeurs d'évent au vin. Elle peut apparaître en cuve, en fût, voire en bouteille.
 </t>
@@ -511,17 +523,54 @@
           <t>Processus microbiologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est la transformation de l'éthanol en éthanal, dont la réaction chimique est :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la transformation de l'éthanol en éthanal, dont la réaction chimique est :
 CH3CH2OH + ½ O2  
         ⇌
     {\displaystyle \rightleftharpoons }
   CH3CHO + H2O .
-Elle est activée par la levure à métabolisme oxydatif Candida vini qui produit un voile blanc sur les vins blancs, et un voile rosé sur les vins rouges, d'aspect cotonneux et plissé[1].
+Elle est activée par la levure à métabolisme oxydatif Candida vini qui produit un voile blanc sur les vins blancs, et un voile rosé sur les vins rouges, d'aspect cotonneux et plissé.
 Cette dégradation peut être la source de commensalisme, par d'autres levures de genre Hansenula produisant alors des esters, ou Pichia.
-Conditions favorables
-Les conditions favorables au développement des levures sont réunies quand :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maladie_de_la_fleur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_la_fleur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Processus microbiologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Conditions favorables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les conditions favorables au développement des levures sont réunies quand :
 il y a un contact du vin avec l'air, ce qui permet de leur apporter de l'oxygène ;
 il y a des températures élevées, en général supérieures à 20 °C ;
 le degré alcoolique est faible ;
@@ -529,37 +578,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maladie_de_la_fleur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_de_la_fleur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Effets sur le vin</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de la fleur, outre l'aspect visuel, provoque des défauts organoleptiques. Elle donne des odeurs de pomme verte dues à l'acétaldéhyde, des odeurs lactées en cas de commensalisme ainsi que de l'acidité volatile, et des goûts d'évent.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -581,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Effets sur le vin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de la fleur, outre l'aspect visuel, provoque des défauts organoleptiques. Elle donne des odeurs de pomme verte dues à l'acétaldéhyde, des odeurs lactées en cas de commensalisme ainsi que de l'acidité volatile, et des goûts d'évent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maladie_de_la_fleur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_la_fleur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitements œnologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En préventif, il faut veiller à l'ouillage régulier des fûts, ou à l'inertage des cuves par un gaz neutre afin de supprimer l'oxygène nécessaire au développement des levures. Le vin doit être sulfité pour garder un taux de 25 mg/L de SO2 libre empêchant le développement levurien.
 Effectuer un collage à la caséine ou à la PVPP permet d'éliminer les odeurs en traitement curatif.
